--- a/translations/Combi-Puzzles_en-ua.xlsx
+++ b/translations/Combi-Puzzles_en-ua.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\an682\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\an682\Desktop\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0338E861-97F3-4057-A101-220B34B87100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2407F-5A9B-4E27-B922-E495BD3632EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E92E15A4-3704-461F-9258-1ED4EB9986E3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>id</t>
   </si>
@@ -886,143 +886,6 @@
     <t>A young boy is applying for a position as a monk in a monastery. The abbot says they have to prove themselves, by succeeding in doing 25 hard tasks over the next 25 days. They can fail in 3 of these tasks, but no more, and still become a monk. How many different ways are there for the boy to either fail or succeed in the tasks if he wants to end up as a monk?</t>
   </si>
   <si>
-    <t>Коментар до умов:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Без замiни</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> означає, що ви </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>не можете</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> вибрати той самий елемент бiльше нiж один раз.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>З замiною</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> означає, що ви </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>можете</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> вибрати той самий елемент бiльше нiж один раз.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Перестановка/послідовність</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -- поряд має значення.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Набір/комібнація</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -- порядок немає значення.</t>
-    </r>
-  </si>
-  <si>
     <t>You want to arrange 16 bingo balls in a sequence. How many distinct sequences are there?</t>
   </si>
   <si>
@@ -2297,15 +2160,6 @@
     </r>
   </si>
   <si>
-    <t>With replacement</t>
-  </si>
-  <si>
-    <t>Without replacement</t>
-  </si>
-  <si>
-    <t>Set/combination</t>
-  </si>
-  <si>
     <t>A baroness is designing her favorite flower bouquet. Only three flowers fit into her vase, but she has in her garden many sunflowers, dahlias, roses, peonies, and cornflowers. And she likes all of them very much. Even putting the same kind of flower more than once into the vase is an option. Thinking about all the possibilities for doing this, she decides she will delegate this important design task to her chief of staff. How many different arrangements can the chief come up with for her?</t>
   </si>
   <si>
@@ -2352,9 +2206,6 @@
   </si>
   <si>
     <t>Молодий хлопчик шукає роботу монаха у монастирі. Абат каже, що йому треба продемонструвати, що він успішно виконає 25 важких завдань протягом наступних 25 днів. Він може провалитися у 3 з цих завдань, але не більше, та стати монахом. Скільки різних способів є у хлопчика, щоб провалитися або впоратися зі завданнями, якщо він хоче стати монахом?</t>
-  </si>
-  <si>
-    <t>Sequance/permutation</t>
   </si>
   <si>
     <t>Є скриня з кулями, які пронумеровані від 0 до 9. Ви дістаєте по одній кулі 4 рази підряд. Після кожного разу ви повертаєте кулю назад у скриню. Скільки різних перестановок куль можна отримати?</t>
@@ -3758,7 +3609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3810,14 +3661,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3923,22 +3766,22 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3953,7 +3796,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4305,12 +4148,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2867B63D-43FD-4BEF-A3E5-F9FA9A92BB61}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A17" sqref="A17"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4333,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -4348,10 +4191,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
@@ -4368,7 +4211,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>9</v>
@@ -4380,19 +4223,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="234" customHeight="1" x14ac:dyDescent="0.35">
@@ -4403,31 +4246,31 @@
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="294" customHeight="1" x14ac:dyDescent="0.35">
@@ -4438,31 +4281,31 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="260" x14ac:dyDescent="0.35">
@@ -4470,34 +4313,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
@@ -4508,7 +4351,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>23</v>
@@ -4520,19 +4363,19 @@
         <v>25</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="117" x14ac:dyDescent="0.35">
@@ -4549,25 +4392,25 @@
         <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="182" x14ac:dyDescent="0.35">
@@ -4578,7 +4421,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>33</v>
@@ -4590,19 +4433,19 @@
         <v>35</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="117" x14ac:dyDescent="0.35">
@@ -4613,7 +4456,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>38</v>
@@ -4625,19 +4468,19 @@
         <v>40</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="312" x14ac:dyDescent="0.35">
@@ -4648,31 +4491,31 @@
         <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="160.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4683,31 +4526,31 @@
         <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="169" x14ac:dyDescent="0.35">
@@ -4718,31 +4561,31 @@
         <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="142.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4753,31 +4596,31 @@
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="130" x14ac:dyDescent="0.35">
@@ -4788,7 +4631,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>57</v>
@@ -4800,19 +4643,19 @@
         <v>59</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>60</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="163.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4823,31 +4666,31 @@
         <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>64</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.35">
@@ -4858,31 +4701,31 @@
         <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>68</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="165" customHeight="1" x14ac:dyDescent="0.35">
@@ -4890,10 +4733,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>69</v>
@@ -4905,19 +4748,19 @@
         <v>71</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>72</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="133.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4928,7 +4771,7 @@
         <v>73</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>74</v>
@@ -4940,19 +4783,19 @@
         <v>76</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="184.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4963,31 +4806,31 @@
         <v>77</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>80</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="117" x14ac:dyDescent="0.35">
@@ -4998,31 +4841,31 @@
         <v>81</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>82</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>84</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="286" x14ac:dyDescent="0.35">
@@ -5033,31 +4876,31 @@
         <v>85</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>87</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="144" customHeight="1" x14ac:dyDescent="0.35">
@@ -5068,25 +4911,25 @@
         <v>88</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>91</v>
@@ -5103,31 +4946,31 @@
         <v>93</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>95</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>96</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="169" x14ac:dyDescent="0.35">
@@ -5138,31 +4981,31 @@
         <v>97</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>99</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>100</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="156" x14ac:dyDescent="0.35">
@@ -5173,7 +5016,7 @@
         <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>102</v>
@@ -5185,19 +5028,19 @@
         <v>104</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>105</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="199.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5205,34 +5048,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>108</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -5248,115 +5091,6 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-    </row>
-    <row r="30" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-    </row>
-    <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
